--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.org.aalto.fi\zopev1\data\Desktop\Abaqus-Macromechanics-Project\configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF632A9-FC0E-4CE9-A3D3-25728C1A2A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="optimize_config" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="optimize_config"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -67,58 +61,64 @@
     <t>manual</t>
   </si>
   <si>
+    <t>DP1000_25C</t>
+  </si>
+  <si>
+    <t>SwiftVoce</t>
+  </si>
+  <si>
+    <t>NDBR20,SH</t>
+  </si>
+  <si>
+    <t>BOTORCH</t>
+  </si>
+  <si>
+    <t>800;830</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>one_node_test</t>
+  </si>
+  <si>
+    <t>SOO</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
     <t>DP1000_400C</t>
   </si>
   <si>
-    <t>SwiftVoce</t>
+    <t>NDBR6</t>
+  </si>
+  <si>
+    <t>curveIndex larger than 1 are simulated target curves</t>
+  </si>
+  <si>
+    <t>two_nodes_small</t>
+  </si>
+  <si>
+    <t>CHD6</t>
   </si>
   <si>
     <t>NDBR50,NDBR6,CHD6</t>
   </si>
   <si>
-    <t>BOTORCH</t>
-  </si>
-  <si>
-    <t>200.200.1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>one_node_test</t>
-  </si>
-  <si>
-    <t>SOO</t>
-  </si>
-  <si>
-    <t>DP1000_25C</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>NDBR6</t>
-  </si>
-  <si>
-    <t>curveIndex larger than 1 are simulated target curves</t>
-  </si>
-  <si>
-    <t>two_nodes_small</t>
-  </si>
-  <si>
-    <t>CHD6</t>
+    <t>200;200;1200</t>
   </si>
   <si>
     <t>one_node_test if you dont want to queue. However, time limit is 15 minutes so simulations will sometimes fail due to timeout</t>
@@ -133,7 +133,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,51 +178,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,10 +234,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -273,71 +275,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,7 +367,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -388,11 +390,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -401,13 +403,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -417,7 +419,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -426,7 +428,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -435,7 +437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -443,10 +445,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -511,34 +513,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -572,7 +577,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3"/>
@@ -582,18 +587,18 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E2" s="7">
         <v>10000</v>
@@ -605,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -616,8 +621,8 @@
       <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6">
-        <v>200</v>
+      <c r="L2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -626,7 +631,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -648,7 +653,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -661,20 +666,20 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4" s="7">
         <v>200</v>
@@ -686,7 +691,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -694,12 +699,12 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>16</v>
@@ -724,7 +729,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -750,7 +755,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -759,13 +764,13 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="6" t="s">
-        <v>19</v>
+      <c r="L7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -774,9 +779,9 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
@@ -784,11 +789,15 @@
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -796,9 +805,9 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -810,7 +819,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -818,9 +827,9 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -832,7 +841,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -840,7 +849,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -852,7 +861,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -860,7 +869,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -872,7 +881,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -880,7 +889,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
@@ -892,7 +901,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -900,7 +909,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
@@ -912,7 +921,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -920,7 +929,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
@@ -932,7 +941,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -940,7 +949,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
@@ -952,7 +961,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -960,7 +969,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -972,7 +981,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -980,7 +989,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
@@ -992,7 +1001,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -1000,7 +1009,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -1012,7 +1021,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1020,7 +1029,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="8"/>
@@ -1032,7 +1041,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -67,64 +67,73 @@
     <t>SwiftVoce</t>
   </si>
   <si>
+    <t>NDBR50,NDBR6,CHD6</t>
+  </si>
+  <si>
+    <t>BOTORCH</t>
+  </si>
+  <si>
+    <t>700;800;800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>one_node_test</t>
+  </si>
+  <si>
+    <t>SOO</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
+    <t>NDBR6</t>
+  </si>
+  <si>
+    <t>curveIndex larger than 1 are simulated target curves</t>
+  </si>
+  <si>
+    <t>two_nodes_small</t>
+  </si>
+  <si>
+    <t>CHD6</t>
+  </si>
+  <si>
+    <t>QP1000_25C</t>
+  </si>
+  <si>
+    <t>200;200;1200</t>
+  </si>
+  <si>
+    <t>one_node_test if you dont want to queue. However, time limit is 15 minutes so simulations will sometimes fail due to timeout</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>one_node_small if you dont want to ever run into timeout problem. However, queuing time is unpredictable</t>
+  </si>
+  <si>
     <t>NDBR20,SH</t>
   </si>
   <si>
-    <t>BOTORCH</t>
-  </si>
-  <si>
     <t>800;830</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>one_node_test</t>
-  </si>
-  <si>
-    <t>SOO</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>DP1000_400C</t>
-  </si>
-  <si>
-    <t>NDBR6</t>
-  </si>
-  <si>
-    <t>curveIndex larger than 1 are simulated target curves</t>
-  </si>
-  <si>
-    <t>two_nodes_small</t>
-  </si>
-  <si>
-    <t>CHD6</t>
-  </si>
-  <si>
-    <t>NDBR50,NDBR6,CHD6</t>
-  </si>
-  <si>
-    <t>200;200;1200</t>
-  </si>
-  <si>
-    <t>one_node_test if you dont want to queue. However, time limit is 15 minutes so simulations will sometimes fail due to timeout</t>
-  </si>
-  <si>
-    <t>one_node_small if you dont want to ever run into timeout problem. However, queuing time is unpredictable</t>
   </si>
   <si>
     <t>two_nodes_small if you run a much larger geometry and one node is not enough to run fast. Two nodes will utilize MPI</t>
@@ -177,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -202,6 +211,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,24 +535,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="21.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
@@ -761,10 +773,12 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -772,8 +786,12 @@
       <c r="L7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="M7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -789,8 +807,8 @@
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
+      <c r="H8" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -798,8 +816,12 @@
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="M8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -807,19 +829,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -829,18 +855,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="8"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -851,16 +877,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="8"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -871,16 +897,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="8"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>

--- a/configs/global_config.xlsx
+++ b/configs/global_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>SLURM_iteration</t>
   </si>
@@ -67,64 +67,67 @@
     <t>SwiftVoce</t>
   </si>
   <si>
+    <t>NDBR50,NDBR20,NDBR6,CHD6,SH</t>
+  </si>
+  <si>
+    <t>BOTORCH</t>
+  </si>
+  <si>
+    <t>700;800;800;800;830</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>one_node_test</t>
+  </si>
+  <si>
+    <t>SOO</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>NDBR50</t>
+  </si>
+  <si>
+    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>DP1000_400C</t>
+  </si>
+  <si>
+    <t>NDBR6</t>
+  </si>
+  <si>
+    <t>curveIndex larger than 1 are simulated target curves</t>
+  </si>
+  <si>
+    <t>two_nodes_small</t>
+  </si>
+  <si>
+    <t>CHD6</t>
+  </si>
+  <si>
+    <t>QP1000_25C</t>
+  </si>
+  <si>
     <t>NDBR50,NDBR6,CHD6</t>
   </si>
   <si>
-    <t>BOTORCH</t>
+    <t>200;200;1200</t>
+  </si>
+  <si>
+    <t>one_node_test if you dont want to queue. However, time limit is 15 minutes so simulations will sometimes fail due to timeout</t>
   </si>
   <si>
     <t>700;800;800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>one_node_test</t>
-  </si>
-  <si>
-    <t>SOO</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>NDBR50</t>
-  </si>
-  <si>
-    <t>By convention, curveIndex 1 corresponds to experimental target curves</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>DP1000_400C</t>
-  </si>
-  <si>
-    <t>NDBR6</t>
-  </si>
-  <si>
-    <t>curveIndex larger than 1 are simulated target curves</t>
-  </si>
-  <si>
-    <t>two_nodes_small</t>
-  </si>
-  <si>
-    <t>CHD6</t>
-  </si>
-  <si>
-    <t>QP1000_25C</t>
-  </si>
-  <si>
-    <t>200;200;1200</t>
-  </si>
-  <si>
-    <t>one_node_test if you dont want to queue. However, time limit is 15 minutes so simulations will sometimes fail due to timeout</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>one_node_small if you dont want to ever run into timeout problem. However, queuing time is unpredictable</t>
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -211,9 +214,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -535,27 +535,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="21.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="32.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,16 +778,16 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>28</v>
@@ -799,7 +799,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
@@ -807,17 +807,15 @@
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>15</v>
@@ -829,22 +827,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -855,18 +853,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="8"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -877,16 +875,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="8"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -897,16 +895,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="8"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
